--- a/table_model____spi-6__lasso_($\beta_=_$1.0).xlsx
+++ b/table_model____spi-6__lasso_($\beta_=_$1.0).xlsx
@@ -690,7 +690,7 @@
         <v>1.12703818</v>
       </c>
       <c r="B2">
-        <v>1.550245217018536</v>
+        <v>1.549176759265603</v>
       </c>
       <c r="C2">
         <v>1.550245206187887</v>
@@ -845,7 +845,7 @@
         <v>1.14030363</v>
       </c>
       <c r="B3">
-        <v>1.139452921383419</v>
+        <v>1.207701839945585</v>
       </c>
       <c r="C3">
         <v>1.139452913689502</v>
@@ -1000,7 +1000,7 @@
         <v>0.681304577</v>
       </c>
       <c r="B4">
-        <v>0.3652399789442105</v>
+        <v>0.4059069232809962</v>
       </c>
       <c r="C4">
         <v>0.3652399766152842</v>
@@ -1155,7 +1155,7 @@
         <v>0.408251684</v>
       </c>
       <c r="B5">
-        <v>0.5894424583929563</v>
+        <v>0.6197262507007525</v>
       </c>
       <c r="C5">
         <v>0.5894424541306305</v>
@@ -1310,7 +1310,7 @@
         <v>-0.107509787</v>
       </c>
       <c r="B6">
-        <v>-0.5191974537325195</v>
+        <v>-0.5813124571115338</v>
       </c>
       <c r="C6">
         <v>-0.5191974510078188</v>
@@ -1465,7 +1465,7 @@
         <v>-0.178373341</v>
       </c>
       <c r="B7">
-        <v>-0.567144448611397</v>
+        <v>-0.5947090340710612</v>
       </c>
       <c r="C7">
         <v>-0.5671444451167065</v>
@@ -1620,7 +1620,7 @@
         <v>0.686567453</v>
       </c>
       <c r="B8">
-        <v>0.413082128765123</v>
+        <v>0.4071683009710324</v>
       </c>
       <c r="C8">
         <v>0.4130821252765206</v>
@@ -1775,7 +1775,7 @@
         <v>0.231220732</v>
       </c>
       <c r="B9">
-        <v>0.2601497779763438</v>
+        <v>0.2497451395804539</v>
       </c>
       <c r="C9">
         <v>0.2601497755511278</v>
@@ -1930,7 +1930,7 @@
         <v>-0.017236558</v>
       </c>
       <c r="B10">
-        <v>0.1171814090896929</v>
+        <v>0.1071697711574002</v>
       </c>
       <c r="C10">
         <v>0.1171814077813421</v>
@@ -2085,7 +2085,7 @@
         <v>-0.7497877120000001</v>
       </c>
       <c r="B11">
-        <v>-0.2178063874936334</v>
+        <v>-0.2603564670779595</v>
       </c>
       <c r="C11">
         <v>-0.2178063867558199</v>
@@ -2240,7 +2240,7 @@
         <v>-0.245343768</v>
       </c>
       <c r="B12">
-        <v>0.285712388035185</v>
+        <v>0.2689724442646475</v>
       </c>
       <c r="C12">
         <v>0.2857123853229231</v>
@@ -2395,7 +2395,7 @@
         <v>-0.33157628</v>
       </c>
       <c r="B13">
-        <v>0.0287382844331294</v>
+        <v>-0.01062751331263967</v>
       </c>
       <c r="C13">
         <v>0.02873828329445058</v>
@@ -2550,7 +2550,7 @@
         <v>-1.121163328</v>
       </c>
       <c r="B14">
-        <v>-1.027460666224416</v>
+        <v>-1.103099120471017</v>
       </c>
       <c r="C14">
         <v>-1.027460660110495</v>
@@ -2705,7 +2705,7 @@
         <v>-0.072537281</v>
       </c>
       <c r="B15">
-        <v>0.1032578082248123</v>
+        <v>0.08401561451310291</v>
       </c>
       <c r="C15">
         <v>0.1032578068570102</v>
@@ -2860,7 +2860,7 @@
         <v>0.309041204</v>
       </c>
       <c r="B16">
-        <v>0.546613139438257</v>
+        <v>0.5363350708952966</v>
       </c>
       <c r="C16">
         <v>0.5466131349597187</v>
@@ -3015,7 +3015,7 @@
         <v>0.418836013</v>
       </c>
       <c r="B17">
-        <v>0.4547320840063076</v>
+        <v>0.476917956832671</v>
       </c>
       <c r="C17">
         <v>0.4547320806350389</v>
@@ -3170,7 +3170,7 @@
         <v>-0.260493354</v>
       </c>
       <c r="B18">
-        <v>-0.4286718667415314</v>
+        <v>-0.4287162725379494</v>
       </c>
       <c r="C18">
         <v>-0.4286718639072942</v>
@@ -3325,7 +3325,7 @@
         <v>-0.054560058</v>
       </c>
       <c r="B19">
-        <v>-0.005548321659019056</v>
+        <v>0.001833135909045547</v>
       </c>
       <c r="C19">
         <v>-0.005548321705183379</v>
@@ -3480,7 +3480,7 @@
         <v>-0.134306691</v>
       </c>
       <c r="B20">
-        <v>-0.1297997952719948</v>
+        <v>-0.1398423688360324</v>
       </c>
       <c r="C20">
         <v>-0.129799794657326</v>
@@ -3635,7 +3635,7 @@
         <v>-1.373687226</v>
       </c>
       <c r="B21">
-        <v>-1.321066440266858</v>
+        <v>-1.340808767415582</v>
       </c>
       <c r="C21">
         <v>-1.321066431892959</v>
@@ -3790,7 +3790,7 @@
         <v>-2.021776558</v>
       </c>
       <c r="B22">
-        <v>-1.78003370633878</v>
+        <v>-1.705854326059518</v>
       </c>
       <c r="C22">
         <v>-1.780033694746837</v>
@@ -3945,7 +3945,7 @@
         <v>-2.768247153</v>
       </c>
       <c r="B23">
-        <v>-2.138144879221149</v>
+        <v>-2.039448963493358</v>
       </c>
       <c r="C23">
         <v>-2.138144865413124</v>
@@ -4100,7 +4100,7 @@
         <v>-1.617556037</v>
       </c>
       <c r="B24">
-        <v>-1.193804554848665</v>
+        <v>-1.21213279867102</v>
       </c>
       <c r="C24">
         <v>-1.193804547254179</v>
@@ -4255,7 +4255,7 @@
         <v>-1.780869488</v>
       </c>
       <c r="B25">
-        <v>-1.819204780565634</v>
+        <v>-1.767482356693216</v>
       </c>
       <c r="C25">
         <v>-1.819204768833724</v>
@@ -4410,7 +4410,7 @@
         <v>-1.300452484</v>
       </c>
       <c r="B26">
-        <v>-1.368671052187782</v>
+        <v>-1.342228527536268</v>
       </c>
       <c r="C26">
         <v>-1.368671043277172</v>
@@ -4565,7 +4565,7 @@
         <v>-1.77117984</v>
       </c>
       <c r="B27">
-        <v>-1.631562851917906</v>
+        <v>-1.553642930927492</v>
       </c>
       <c r="C27">
         <v>-1.631562841194308</v>
@@ -4720,7 +4720,7 @@
         <v>-1.377645584</v>
       </c>
       <c r="B28">
-        <v>-1.249826963005999</v>
+        <v>-1.283857473917002</v>
       </c>
       <c r="C28">
         <v>-1.24982695515941</v>
@@ -4875,7 +4875,7 @@
         <v>-0.193821668</v>
       </c>
       <c r="B29">
-        <v>0.01978794036551179</v>
+        <v>-0.009226763556054784</v>
       </c>
       <c r="C29">
         <v>0.01978793947545679</v>
@@ -5030,7 +5030,7 @@
         <v>-0.135364639</v>
       </c>
       <c r="B30">
-        <v>0.5372868421685366</v>
+        <v>0.5052053363459291</v>
       </c>
       <c r="C30">
         <v>0.5372868375368329</v>
@@ -5185,7 +5185,7 @@
         <v>-0.360498282</v>
       </c>
       <c r="B31">
-        <v>0.243864226665924</v>
+        <v>0.209730297568416</v>
       </c>
       <c r="C31">
         <v>0.2438642240203912</v>
@@ -5340,7 +5340,7 @@
         <v>-0.859042275</v>
       </c>
       <c r="B32">
-        <v>-0.1447951143592152</v>
+        <v>-0.196899503026408</v>
       </c>
       <c r="C32">
         <v>-0.1447951143761704</v>
@@ -5495,7 +5495,7 @@
         <v>-0.149240493</v>
       </c>
       <c r="B33">
-        <v>0.3252252998971016</v>
+        <v>0.3080085646509561</v>
       </c>
       <c r="C33">
         <v>0.3252252968902856</v>
@@ -5650,7 +5650,7 @@
         <v>-0.236175245</v>
       </c>
       <c r="B34">
-        <v>0.2691140042273756</v>
+        <v>0.2584003237712873</v>
       </c>
       <c r="C34">
         <v>0.2691140017295826</v>
@@ -5805,7 +5805,7 @@
         <v>-1.022433007</v>
       </c>
       <c r="B35">
-        <v>-0.4817462189687911</v>
+        <v>-0.5235714759668169</v>
       </c>
       <c r="C35">
         <v>-0.4817462162310065</v>
@@ -5960,7 +5960,7 @@
         <v>-1.53558335</v>
       </c>
       <c r="B36">
-        <v>-1.220807920384668</v>
+        <v>-1.293065712645356</v>
       </c>
       <c r="C36">
         <v>-1.220807912983397</v>
@@ -6115,7 +6115,7 @@
         <v>-1.348318065</v>
       </c>
       <c r="B37">
-        <v>-1.070197445636819</v>
+        <v>-1.132812276383221</v>
       </c>
       <c r="C37">
         <v>-1.070197439131539</v>
@@ -6270,7 +6270,7 @@
         <v>-0.915745502</v>
       </c>
       <c r="B38">
-        <v>-0.8043363281091223</v>
+        <v>-0.8608922271349226</v>
       </c>
       <c r="C38">
         <v>-0.8043363233040561</v>
@@ -6425,7 +6425,7 @@
         <v>-0.422632353</v>
       </c>
       <c r="B39">
-        <v>-0.4594991048483937</v>
+        <v>-0.4903253230192564</v>
       </c>
       <c r="C39">
         <v>-0.4594991021309057</v>
@@ -6580,7 +6580,7 @@
         <v>-0.350518731</v>
       </c>
       <c r="B40">
-        <v>-0.3503906739675066</v>
+        <v>-0.379026357962915</v>
       </c>
       <c r="C40">
         <v>-0.3503906719993251</v>
@@ -6735,7 +6735,7 @@
         <v>-0.128190664</v>
       </c>
       <c r="B41">
-        <v>-0.06695349321475891</v>
+        <v>-0.08774943179050432</v>
       </c>
       <c r="C41">
         <v>-0.06695349326615094</v>
@@ -6890,7 +6890,7 @@
         <v>0.063051911</v>
       </c>
       <c r="B42">
-        <v>-0.1187253346961049</v>
+        <v>-0.1421488945607436</v>
       </c>
       <c r="C42">
         <v>-0.1187253343891275</v>
@@ -7045,7 +7045,7 @@
         <v>0.693438741</v>
       </c>
       <c r="B43">
-        <v>0.5738386596247844</v>
+        <v>0.598658900713158</v>
       </c>
       <c r="C43">
         <v>0.5738386553959878</v>
@@ -7200,7 +7200,7 @@
         <v>1.457632203</v>
       </c>
       <c r="B44">
-        <v>1.717399746535087</v>
+        <v>1.687052793765762</v>
       </c>
       <c r="C44">
         <v>1.717399734534293</v>
@@ -7355,7 +7355,7 @@
         <v>0.925767399</v>
       </c>
       <c r="B45">
-        <v>1.578010077631615</v>
+        <v>1.517051733533639</v>
       </c>
       <c r="C45">
         <v>1.578010066326079</v>
@@ -7510,7 +7510,7 @@
         <v>1.438674037</v>
       </c>
       <c r="B46">
-        <v>1.906077565954648</v>
+        <v>1.770712758282326</v>
       </c>
       <c r="C46">
         <v>1.90607755237326</v>
@@ -7665,7 +7665,7 @@
         <v>1.050844567</v>
       </c>
       <c r="B47">
-        <v>1.75533543669456</v>
+        <v>1.693682151837131</v>
       </c>
       <c r="C47">
         <v>1.755335424318985</v>
@@ -7820,7 +7820,7 @@
         <v>1.019025634</v>
       </c>
       <c r="B48">
-        <v>1.638746943137655</v>
+        <v>1.65755313489594</v>
       </c>
       <c r="C48">
         <v>1.638746931874258</v>
@@ -7975,7 +7975,7 @@
         <v>0.702825517</v>
       </c>
       <c r="B49">
-        <v>1.386582210750296</v>
+        <v>1.416136097010809</v>
       </c>
       <c r="C49">
         <v>1.386582201123884</v>
@@ -8130,7 +8130,7 @@
         <v>-0.07035459600000001</v>
       </c>
       <c r="B50">
-        <v>0.1282283263238787</v>
+        <v>0.1308784473244288</v>
       </c>
       <c r="C50">
         <v>0.12822832516483</v>
@@ -8285,7 +8285,7 @@
         <v>-0.463687422</v>
       </c>
       <c r="B51">
-        <v>-0.4660512356996891</v>
+        <v>-0.4480277561205335</v>
       </c>
       <c r="C51">
         <v>-0.4660512324612911</v>
@@ -8440,7 +8440,7 @@
         <v>-1.238225604</v>
       </c>
       <c r="B52">
-        <v>-1.317234661477216</v>
+        <v>-1.213586179045625</v>
       </c>
       <c r="C52">
         <v>-1.317234652519923</v>
@@ -8595,7 +8595,7 @@
         <v>-0.60508294</v>
       </c>
       <c r="B53">
-        <v>-0.8070679994485925</v>
+        <v>-0.7484826939065479</v>
       </c>
       <c r="C53">
         <v>-0.8070679937964838</v>
@@ -8750,7 +8750,7 @@
         <v>-0.017287212</v>
       </c>
       <c r="B54">
-        <v>0.4406405336869555</v>
+        <v>0.4689450194640229</v>
       </c>
       <c r="C54">
         <v>0.4406405305331901</v>
@@ -8905,7 +8905,7 @@
         <v>0.400816827</v>
       </c>
       <c r="B55">
-        <v>0.8697753339609002</v>
+        <v>0.8830930660717636</v>
       </c>
       <c r="C55">
         <v>0.8697753275398874</v>
@@ -9060,7 +9060,7 @@
         <v>1.139826615</v>
       </c>
       <c r="B56">
-        <v>1.436163445926016</v>
+        <v>1.450643640291943</v>
       </c>
       <c r="C56">
         <v>1.436163435891777</v>
@@ -9215,7 +9215,7 @@
         <v>1.216172342</v>
       </c>
       <c r="B57">
-        <v>1.63202885395677</v>
+        <v>1.595517911349871</v>
       </c>
       <c r="C57">
         <v>1.632028842442594</v>
@@ -9370,7 +9370,7 @@
         <v>1.317836986</v>
       </c>
       <c r="B58">
-        <v>1.536485447453025</v>
+        <v>1.508885076445824</v>
       </c>
       <c r="C58">
         <v>1.536485436564201</v>
@@ -9525,7 +9525,7 @@
         <v>1.016928937</v>
       </c>
       <c r="B59">
-        <v>1.243603963651344</v>
+        <v>1.253709079241698</v>
       </c>
       <c r="C59">
         <v>1.24360395479522</v>
@@ -9680,7 +9680,7 @@
         <v>0.845043648</v>
       </c>
       <c r="B60">
-        <v>1.130839752019836</v>
+        <v>1.153927249036513</v>
       </c>
       <c r="C60">
         <v>1.130839743975868</v>
@@ -9835,7 +9835,7 @@
         <v>0.6860601039999999</v>
       </c>
       <c r="B61">
-        <v>0.920551647169388</v>
+        <v>0.9393366283385978</v>
       </c>
       <c r="C61">
         <v>0.92055164046176</v>
@@ -9990,7 +9990,7 @@
         <v>-0.019694092</v>
       </c>
       <c r="B62">
-        <v>0.2480431549940833</v>
+        <v>0.2280621403889982</v>
       </c>
       <c r="C62">
         <v>0.2480431525120743</v>
@@ -10145,7 +10145,7 @@
         <v>-0.366212842</v>
       </c>
       <c r="B63">
-        <v>-0.001549304125922905</v>
+        <v>-0.0312975496032899</v>
       </c>
       <c r="C63">
         <v>-0.001549304861600174</v>
@@ -10300,7 +10300,7 @@
         <v>1.5856655</v>
       </c>
       <c r="B64">
-        <v>1.676229399164936</v>
+        <v>1.608597886430497</v>
       </c>
       <c r="C64">
         <v>1.676229387237266</v>
@@ -10455,7 +10455,7 @@
         <v>1.886598222</v>
       </c>
       <c r="B65">
-        <v>1.82135717205578</v>
+        <v>1.671621622421648</v>
       </c>
       <c r="C65">
         <v>1.821357158919844</v>
@@ -10610,7 +10610,7 @@
         <v>2.355489398</v>
       </c>
       <c r="B66">
-        <v>2.012945432047706</v>
+        <v>1.727304142887148</v>
       </c>
       <c r="C66">
         <v>2.012945417298638</v>
@@ -10765,7 +10765,7 @@
         <v>2.175336124</v>
       </c>
       <c r="B67">
-        <v>1.80472952892504</v>
+        <v>1.617420229603066</v>
       </c>
       <c r="C67">
         <v>1.804729515744173</v>
@@ -10920,7 +10920,7 @@
         <v>2.193614808</v>
       </c>
       <c r="B68">
-        <v>1.599322342266384</v>
+        <v>1.481691139380476</v>
       </c>
       <c r="C68">
         <v>1.599322330579654</v>
@@ -11075,7 +11075,7 @@
         <v>2.430700245</v>
       </c>
       <c r="B69">
-        <v>1.753850801846701</v>
+        <v>1.646217857679755</v>
       </c>
       <c r="C69">
         <v>1.753850789280904</v>
@@ -11230,7 +11230,7 @@
         <v>0.607910564</v>
       </c>
       <c r="B70">
-        <v>0.3189900566652414</v>
+        <v>0.2936229183003242</v>
       </c>
       <c r="C70">
         <v>0.3189900535968395</v>
@@ -11385,7 +11385,7 @@
         <v>1.103132367</v>
       </c>
       <c r="B71">
-        <v>0.7045153287982706</v>
+        <v>0.6920210224040524</v>
       </c>
       <c r="C71">
         <v>0.7045153232372574</v>
@@ -11540,7 +11540,7 @@
         <v>0.726620534</v>
       </c>
       <c r="B72">
-        <v>0.4032219723978452</v>
+        <v>0.4216827874561695</v>
       </c>
       <c r="C72">
         <v>0.4032219693605918</v>
@@ -11695,7 +11695,7 @@
         <v>0.661591042</v>
       </c>
       <c r="B73">
-        <v>0.4447732882585726</v>
+        <v>0.4619377542697602</v>
       </c>
       <c r="C73">
         <v>0.4447732848794558</v>
@@ -11850,7 +11850,7 @@
         <v>0.815347372</v>
       </c>
       <c r="B74">
-        <v>0.6313163275553793</v>
+        <v>0.6649312871298643</v>
       </c>
       <c r="C74">
         <v>0.6313163230317107</v>
@@ -12005,7 +12005,7 @@
         <v>0.370963237</v>
       </c>
       <c r="B75">
-        <v>0.355253922387185</v>
+        <v>0.3711518852719478</v>
       </c>
       <c r="C75">
         <v>0.3552539196786401</v>
@@ -12160,7 +12160,7 @@
         <v>0.75714769</v>
       </c>
       <c r="B76">
-        <v>0.6113198084647773</v>
+        <v>0.644548530877358</v>
       </c>
       <c r="C76">
         <v>0.6113198040842032</v>
@@ -12315,7 +12315,7 @@
         <v>0.130291626</v>
       </c>
       <c r="B77">
-        <v>-0.1434141794807453</v>
+        <v>-0.1509016599632591</v>
       </c>
       <c r="C77">
         <v>-0.1434141787262916</v>
@@ -12470,7 +12470,7 @@
         <v>-0.109629176</v>
       </c>
       <c r="B78">
-        <v>-0.2462760322905144</v>
+        <v>-0.2866072447831352</v>
       </c>
       <c r="C78">
         <v>-0.2462760312891752</v>
@@ -12625,7 +12625,7 @@
         <v>0.913137665</v>
       </c>
       <c r="B79">
-        <v>0.6967718672589138</v>
+        <v>0.6852530318361352</v>
       </c>
       <c r="C79">
         <v>0.696771861757874</v>
@@ -12780,7 +12780,7 @@
         <v>0.9945061630000001</v>
       </c>
       <c r="B80">
-        <v>0.8493278495184202</v>
+        <v>0.8157807494219389</v>
       </c>
       <c r="C80">
         <v>0.8493278428552657</v>
@@ -12935,7 +12935,7 @@
         <v>1.203316887</v>
       </c>
       <c r="B81">
-        <v>0.9375733261392301</v>
+        <v>0.9163382400087725</v>
       </c>
       <c r="C81">
         <v>0.9375733190028486</v>
@@ -13090,7 +13090,7 @@
         <v>0.382738146</v>
       </c>
       <c r="B82">
-        <v>0.1684570328797524</v>
+        <v>0.1155554131639938</v>
       </c>
       <c r="C82">
         <v>0.1684570305365602</v>
@@ -13245,7 +13245,7 @@
         <v>1.084617502</v>
       </c>
       <c r="B83">
-        <v>0.9266492995006337</v>
+        <v>0.8444865946937131</v>
       </c>
       <c r="C83">
         <v>0.9266492920507803</v>
@@ -13400,7 +13400,7 @@
         <v>0.465588453</v>
       </c>
       <c r="B84">
-        <v>0.3965519625142882</v>
+        <v>0.3441985328533933</v>
       </c>
       <c r="C84">
         <v>0.3965519586303642</v>
@@ -13555,7 +13555,7 @@
         <v>-0.594869934</v>
       </c>
       <c r="B85">
-        <v>-0.6160836241112591</v>
+        <v>-0.7186477712891075</v>
       </c>
       <c r="C85">
         <v>-0.6160836213387191</v>
@@ -13710,7 +13710,7 @@
         <v>-0.876294891</v>
       </c>
       <c r="B86">
-        <v>-0.9424916156916034</v>
+        <v>-1.060943960013575</v>
       </c>
       <c r="C86">
         <v>-0.9424916106692218</v>
@@ -13865,7 +13865,7 @@
         <v>-1.298027516</v>
       </c>
       <c r="B87">
-        <v>-1.348955509027058</v>
+        <v>-1.492114973436288</v>
       </c>
       <c r="C87">
         <v>-1.348955501420015</v>
@@ -14020,7 +14020,7 @@
         <v>-1.033099513</v>
       </c>
       <c r="B88">
-        <v>-0.7390249184697943</v>
+        <v>-0.8438698256050454</v>
       </c>
       <c r="C88">
         <v>-0.7390249147721655</v>
@@ -14175,7 +14175,7 @@
         <v>-1.477734207</v>
       </c>
       <c r="B89">
-        <v>-1.321608881674026</v>
+        <v>-1.46133298002621</v>
       </c>
       <c r="C89">
         <v>-1.321608874217409</v>
@@ -14330,7 +14330,7 @@
         <v>0.138019302</v>
       </c>
       <c r="B90">
-        <v>-0.2135144546577188</v>
+        <v>-0.2988994650394377</v>
       </c>
       <c r="C90">
         <v>-0.2135144546928269</v>
@@ -14485,7 +14485,7 @@
         <v>0.386052651</v>
       </c>
       <c r="B91">
-        <v>0.05305318414962756</v>
+        <v>-0.02601499975193322</v>
       </c>
       <c r="C91">
         <v>0.05305318231152156</v>
@@ -14640,7 +14640,7 @@
         <v>0.50370249</v>
       </c>
       <c r="B92">
-        <v>0.167161109548149</v>
+        <v>0.08947352257780494</v>
       </c>
       <c r="C92">
         <v>0.1671611069540742</v>
@@ -14795,7 +14795,7 @@
         <v>0.997029061</v>
       </c>
       <c r="B93">
-        <v>0.4847465975034248</v>
+        <v>0.4136285079104567</v>
       </c>
       <c r="C93">
         <v>0.4847465928917504</v>
@@ -14950,7 +14950,7 @@
         <v>1.133239879</v>
       </c>
       <c r="B94">
-        <v>0.5828371579538401</v>
+        <v>0.5074988852624884</v>
       </c>
       <c r="C94">
         <v>0.5828371526877698</v>
@@ -15105,7 +15105,7 @@
         <v>0.747303563</v>
       </c>
       <c r="B95">
-        <v>0.2793635190221356</v>
+        <v>0.2134823227425671</v>
       </c>
       <c r="C95">
         <v>0.2793635157914677</v>
@@ -15260,7 +15260,7 @@
         <v>-0.324059974</v>
       </c>
       <c r="B96">
-        <v>-0.4617949672994012</v>
+        <v>-0.5543124604684329</v>
       </c>
       <c r="C96">
         <v>-0.4617949655610892</v>
@@ -15415,7 +15415,7 @@
         <v>-0.318834909</v>
       </c>
       <c r="B97">
-        <v>-0.3351023900971631</v>
+        <v>-0.4176506659591719</v>
       </c>
       <c r="C97">
         <v>-0.3351023891706281</v>
@@ -15570,7 +15570,7 @@
         <v>-0.489685706</v>
       </c>
       <c r="B98">
-        <v>-0.4538891932799428</v>
+        <v>-0.5392685960225498</v>
       </c>
       <c r="C98">
         <v>-0.453889191471769</v>
@@ -15725,7 +15725,7 @@
         <v>-1.24440553</v>
       </c>
       <c r="B99">
-        <v>-0.9526773602932024</v>
+        <v>-1.076527023850668</v>
       </c>
       <c r="C99">
         <v>-0.9526773552781491</v>
@@ -15880,7 +15880,7 @@
         <v>-1.29987206</v>
       </c>
       <c r="B100">
-        <v>-0.697973533004651</v>
+        <v>-0.7999342194309114</v>
       </c>
       <c r="C100">
         <v>-0.6979735295755265</v>
@@ -16035,7 +16035,7 @@
         <v>-1.103062627</v>
       </c>
       <c r="B101">
-        <v>-0.5017188079613084</v>
+        <v>-0.5922446148363774</v>
       </c>
       <c r="C101">
         <v>-0.5017188058702564</v>
@@ -16190,7 +16190,7 @@
         <v>-2.173105618</v>
       </c>
       <c r="B102">
-        <v>-1.022160613877603</v>
+        <v>-1.157779813179636</v>
       </c>
       <c r="C102">
         <v>-1.022160608525668</v>
@@ -16345,7 +16345,7 @@
         <v>-2.350437111</v>
       </c>
       <c r="B103">
-        <v>-1.611580323087587</v>
+        <v>-1.774442223448738</v>
       </c>
       <c r="C103">
         <v>-1.611580313900417</v>
@@ -16500,7 +16500,7 @@
         <v>-2.424850206</v>
       </c>
       <c r="B104">
-        <v>-1.875316285926374</v>
+        <v>-2.050775339949804</v>
       </c>
       <c r="C104">
         <v>-1.875316275111188</v>
@@ -16655,7 +16655,7 @@
         <v>-1.306491488</v>
       </c>
       <c r="B105">
-        <v>-1.299522142462976</v>
+        <v>-1.458410267496494</v>
       </c>
       <c r="C105">
         <v>-1.299522135400389</v>
@@ -16810,7 +16810,7 @@
         <v>-1.203195314</v>
       </c>
       <c r="B106">
-        <v>-1.433968780672185</v>
+        <v>-1.582624969959709</v>
       </c>
       <c r="C106">
         <v>-1.433968772541892</v>
@@ -16965,7 +16965,7 @@
         <v>-0.242662172</v>
       </c>
       <c r="B107">
-        <v>-0.6550721560031156</v>
+        <v>-0.7645501676742894</v>
       </c>
       <c r="C107">
         <v>-0.6550721530509669</v>
@@ -17120,7 +17120,7 @@
         <v>0.88970951</v>
       </c>
       <c r="B108">
-        <v>0.6428872120509488</v>
+        <v>0.5882406996092652</v>
       </c>
       <c r="C108">
         <v>0.6428872065500648</v>
@@ -17275,7 +17275,7 @@
         <v>0.928446632</v>
       </c>
       <c r="B109">
-        <v>0.8378848357422792</v>
+        <v>0.7714697408668987</v>
       </c>
       <c r="C109">
         <v>0.8378848289344074</v>
@@ -17430,7 +17430,7 @@
         <v>1.465487602</v>
       </c>
       <c r="B110">
-        <v>1.173168797706124</v>
+        <v>1.088764011160676</v>
       </c>
       <c r="C110">
         <v>1.173168788737016</v>
@@ -17585,7 +17585,7 @@
         <v>1.784585844</v>
       </c>
       <c r="B111">
-        <v>1.899905991685166</v>
+        <v>1.671401623200452</v>
       </c>
       <c r="C111">
         <v>1.899905977794613</v>
@@ -17740,7 +17740,7 @@
         <v>1.858495744</v>
       </c>
       <c r="B112">
-        <v>2.130234353961138</v>
+        <v>1.879156717969135</v>
       </c>
       <c r="C112">
         <v>2.130234338642647</v>
@@ -17895,7 +17895,7 @@
         <v>1.493374882</v>
       </c>
       <c r="B113">
-        <v>1.774685495549573</v>
+        <v>1.561988397409557</v>
       </c>
       <c r="C113">
         <v>1.774685482451938</v>
@@ -18050,7 +18050,7 @@
         <v>1.412473281</v>
       </c>
       <c r="B114">
-        <v>1.497876708070737</v>
+        <v>1.259359498391955</v>
       </c>
       <c r="C114">
         <v>1.497876696508293</v>
@@ -18205,7 +18205,7 @@
         <v>1.659878719</v>
       </c>
       <c r="B115">
-        <v>1.721659424506325</v>
+        <v>1.444224059953203</v>
       </c>
       <c r="C115">
         <v>1.721659411489838</v>
@@ -18360,7 +18360,7 @@
         <v>1.179616332</v>
       </c>
       <c r="B116">
-        <v>1.979524207648771</v>
+        <v>1.671590149378062</v>
       </c>
       <c r="C116">
         <v>1.979524193020824</v>
@@ -18515,7 +18515,7 @@
         <v>1.233273608</v>
       </c>
       <c r="B117">
-        <v>1.572025199598567</v>
+        <v>1.393669855896711</v>
       </c>
       <c r="C117">
         <v>1.572025187826903</v>
@@ -18670,7 +18670,7 @@
         <v>0.743599215</v>
       </c>
       <c r="B118">
-        <v>1.151267014804524</v>
+        <v>1.019686208665958</v>
       </c>
       <c r="C118">
         <v>1.151267005739758</v>
@@ -18825,7 +18825,7 @@
         <v>1.229907731</v>
       </c>
       <c r="B119">
-        <v>1.214585473985745</v>
+        <v>1.084217277473481</v>
       </c>
       <c r="C119">
         <v>1.214585464545919</v>
@@ -18980,7 +18980,7 @@
         <v>2.403226273</v>
       </c>
       <c r="B120">
-        <v>2.127897504534949</v>
+        <v>1.886115504459864</v>
       </c>
       <c r="C120">
         <v>2.127897489261761</v>
@@ -19135,7 +19135,7 @@
         <v>2.059121985</v>
       </c>
       <c r="B121">
-        <v>1.968939065177918</v>
+        <v>1.739878254928009</v>
       </c>
       <c r="C121">
         <v>1.968939050880265</v>
@@ -19290,7 +19290,7 @@
         <v>1.874258274</v>
       </c>
       <c r="B122">
-        <v>1.734423609916508</v>
+        <v>1.563125637165057</v>
       </c>
       <c r="C122">
         <v>1.734423597211394</v>
@@ -19445,7 +19445,7 @@
         <v>1.208393848</v>
       </c>
       <c r="B123">
-        <v>1.344520508513901</v>
+        <v>1.221440408119267</v>
       </c>
       <c r="C123">
         <v>1.344520498327173</v>
@@ -19600,7 +19600,7 @@
         <v>1.542184756</v>
       </c>
       <c r="B124">
-        <v>1.498318804945367</v>
+        <v>1.376733040570663</v>
       </c>
       <c r="C124">
         <v>1.498318793844749</v>
@@ -19755,7 +19755,7 @@
         <v>1.314560082</v>
       </c>
       <c r="B125">
-        <v>1.45755306252478</v>
+        <v>1.310278859619054</v>
       </c>
       <c r="C125">
         <v>1.457553051558407</v>
@@ -19910,7 +19910,7 @@
         <v>-1.001923586</v>
       </c>
       <c r="B126">
-        <v>-0.5898202184521131</v>
+        <v>-0.6969943775808805</v>
       </c>
       <c r="C126">
         <v>-0.5898202159739738</v>
@@ -20065,7 +20065,7 @@
         <v>0.304133877</v>
       </c>
       <c r="B127">
-        <v>0.6905904230146416</v>
+        <v>0.5901801276701386</v>
       </c>
       <c r="C127">
         <v>0.6905904169162844</v>
@@ -20220,7 +20220,7 @@
         <v>0.17850123</v>
       </c>
       <c r="B128">
-        <v>0.3900839200649829</v>
+        <v>0.3103700477574086</v>
       </c>
       <c r="C128">
         <v>0.3900839159957146</v>
@@ -20375,7 +20375,7 @@
         <v>1.063120745</v>
       </c>
       <c r="B129">
-        <v>0.98147314506975</v>
+        <v>0.8819931068323763</v>
       </c>
       <c r="C129">
         <v>0.9814731371902787</v>
@@ -20530,7 +20530,7 @@
         <v>0.464528379</v>
       </c>
       <c r="B130">
-        <v>0.5970080253874619</v>
+        <v>0.5209240763436908</v>
       </c>
       <c r="C130">
         <v>0.5970080200267847</v>
@@ -20685,7 +20685,7 @@
         <v>0.740267424</v>
       </c>
       <c r="B131">
-        <v>1.166056082160963</v>
+        <v>1.042364817973388</v>
       </c>
       <c r="C131">
         <v>1.16605607304376</v>
@@ -20840,7 +20840,7 @@
         <v>0.991836694</v>
       </c>
       <c r="B132">
-        <v>1.512766842908928</v>
+        <v>1.383269251727831</v>
       </c>
       <c r="C132">
         <v>1.512766831688224</v>
@@ -20995,7 +20995,7 @@
         <v>-0.037111578</v>
       </c>
       <c r="B133">
-        <v>0.6352400471516282</v>
+        <v>0.5782876576698686</v>
       </c>
       <c r="C133">
         <v>0.6352400416827273</v>
@@ -21150,7 +21150,7 @@
         <v>0.623458544</v>
       </c>
       <c r="B134">
-        <v>0.9221167307618823</v>
+        <v>0.8608069910223293</v>
       </c>
       <c r="C134">
         <v>0.9221167234613974</v>
@@ -21305,7 +21305,7 @@
         <v>0.08882322099999999</v>
       </c>
       <c r="B135">
-        <v>0.6894528455478348</v>
+        <v>0.6302438694099107</v>
       </c>
       <c r="C135">
         <v>0.6894528397186095</v>
@@ -21460,7 +21460,7 @@
         <v>0.116119944</v>
       </c>
       <c r="B136">
-        <v>0.4087505524763712</v>
+        <v>0.3676336302610863</v>
       </c>
       <c r="C136">
         <v>0.4087505486166341</v>
@@ -21615,7 +21615,7 @@
         <v>0.037484165</v>
       </c>
       <c r="B137">
-        <v>-0.02894204176453197</v>
+        <v>-0.08975336647095378</v>
       </c>
       <c r="C137">
         <v>-0.02894204280094193</v>
@@ -21770,7 +21770,7 @@
         <v>0.468701595</v>
       </c>
       <c r="B138">
-        <v>0.2969188833092511</v>
+        <v>0.2181652479401538</v>
       </c>
       <c r="C138">
         <v>0.296918879850614</v>
